--- a/2020/September/All Details/03.09.2020/MC Bank Statement Sep-2020.xlsx
+++ b/2020/September/All Details/03.09.2020/MC Bank Statement Sep-2020.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="August 2020" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="189">
   <si>
     <t>Date</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Bank Amount Received</t>
-  </si>
-  <si>
-    <t>Date: 02.09.2020</t>
   </si>
   <si>
     <t>Symphony Adjust: Due (+)</t>
@@ -585,6 +582,18 @@
   </si>
   <si>
     <t>Sweet Tel</t>
+  </si>
+  <si>
+    <t>Date: 03.09.2020</t>
+  </si>
+  <si>
+    <t>03.08.2020</t>
+  </si>
+  <si>
+    <t>Sohag + Mondol</t>
+  </si>
+  <si>
+    <t>Mobile bill DSR</t>
   </si>
 </sst>
 </file>
@@ -1916,7 +1925,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2765,6 +2774,12 @@
     <xf numFmtId="2" fontId="39" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="39" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2849,6 +2864,30 @@
     <xf numFmtId="2" fontId="39" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2879,38 +2918,11 @@
     <xf numFmtId="1" fontId="39" fillId="35" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="36" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3003,7 +3015,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3027,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3038,14 +3050,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3082,7 +3094,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3094,7 +3106,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3117,14 +3129,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3479,8 +3491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3501,21 +3513,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="298" t="s">
+      <c r="B2" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
+      <c r="C2" s="300"/>
+      <c r="D2" s="300"/>
+      <c r="E2" s="300"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="301" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="36" t="s">
@@ -3646,7 +3658,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="35"/>
       <c r="B11" s="40" t="s">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c r="C11" s="39">
         <v>0</v>
@@ -3664,12 +3676,18 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="35"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
+      <c r="B12" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="39">
+        <v>800000</v>
+      </c>
+      <c r="D12" s="39">
+        <v>0</v>
+      </c>
       <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="43"/>
@@ -3682,7 +3700,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="2"/>
@@ -3695,7 +3713,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="2"/>
@@ -3708,7 +3726,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="2"/>
@@ -3721,7 +3739,7 @@
       <c r="D16" s="39"/>
       <c r="E16" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="33"/>
@@ -3734,7 +3752,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="13"/>
@@ -3747,7 +3765,7 @@
       <c r="D18" s="39"/>
       <c r="E18" s="41">
         <f>E17+C18-D18</f>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="43"/>
@@ -3760,7 +3778,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="43"/>
@@ -3773,7 +3791,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="43"/>
@@ -3786,7 +3804,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="41">
         <f>E20+C21-D21</f>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="2"/>
@@ -3799,7 +3817,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="2"/>
@@ -3812,7 +3830,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="41">
         <f>E22+C23-D23</f>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="2"/>
@@ -3825,7 +3843,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="2"/>
@@ -3838,7 +3856,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="2"/>
@@ -3851,7 +3869,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="2"/>
@@ -3864,7 +3882,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="2"/>
@@ -3877,7 +3895,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="2"/>
@@ -3890,7 +3908,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="2"/>
@@ -3903,7 +3921,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="2"/>
@@ -3916,7 +3934,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="2"/>
@@ -3929,7 +3947,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="2"/>
@@ -3942,7 +3960,7 @@
       <c r="D33" s="42"/>
       <c r="E33" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="2"/>
@@ -3955,7 +3973,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="2"/>
@@ -3968,7 +3986,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="2"/>
@@ -3981,7 +3999,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="2"/>
@@ -3994,7 +4012,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="41">
         <f t="shared" si="0"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="2"/>
@@ -4007,7 +4025,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="41">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="2"/>
@@ -4020,7 +4038,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="2"/>
@@ -4033,7 +4051,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="2"/>
@@ -4046,7 +4064,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="2"/>
@@ -4059,7 +4077,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="2"/>
@@ -4072,7 +4090,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="2"/>
@@ -4085,7 +4103,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="2"/>
@@ -4098,7 +4116,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="2"/>
@@ -4111,7 +4129,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="2"/>
@@ -4124,7 +4142,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="2"/>
@@ -4137,7 +4155,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="2"/>
@@ -4149,7 +4167,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="2"/>
@@ -4161,7 +4179,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="2"/>
@@ -4173,7 +4191,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="2"/>
@@ -4185,7 +4203,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="2"/>
@@ -4197,7 +4215,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="2"/>
@@ -4209,7 +4227,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="2"/>
@@ -4221,7 +4239,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="2"/>
@@ -4232,7 +4250,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="2"/>
@@ -4243,7 +4261,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="2"/>
@@ -4254,7 +4272,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="2"/>
@@ -4265,7 +4283,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="2"/>
@@ -4276,7 +4294,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="2"/>
@@ -4287,7 +4305,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="2"/>
@@ -4298,7 +4316,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="2"/>
@@ -4309,7 +4327,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="2"/>
@@ -4320,7 +4338,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="2"/>
@@ -4331,7 +4349,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="2"/>
@@ -4342,7 +4360,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="2"/>
@@ -4353,7 +4371,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="2"/>
@@ -4364,7 +4382,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="2"/>
@@ -4375,7 +4393,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="41">
         <f t="shared" si="1"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="2"/>
@@ -4386,7 +4404,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="41">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="2"/>
@@ -4397,7 +4415,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="2"/>
@@ -4408,7 +4426,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="2"/>
@@ -4419,7 +4437,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="2"/>
@@ -4430,7 +4448,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="2"/>
@@ -4441,7 +4459,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="2"/>
@@ -4452,7 +4470,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="2"/>
@@ -4463,7 +4481,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="2"/>
@@ -4474,7 +4492,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="2"/>
@@ -4485,7 +4503,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="2"/>
@@ -4496,7 +4514,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="2"/>
@@ -4507,7 +4525,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="2"/>
@@ -4518,7 +4536,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="41">
         <f t="shared" si="2"/>
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="2"/>
@@ -4527,7 +4545,7 @@
       <c r="B83" s="45"/>
       <c r="C83" s="41">
         <f>SUM(C5:C72)</f>
-        <v>4405874</v>
+        <v>5205874</v>
       </c>
       <c r="D83" s="41">
         <f>SUM(D5:D77)</f>
@@ -4535,7 +4553,7 @@
       </c>
       <c r="E83" s="67">
         <f>E71+C83-D83</f>
-        <v>5611748</v>
+        <v>7211748</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="2"/>
@@ -4563,8 +4581,8 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -4580,24 +4598,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="302" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="302"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="304"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="303" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="304"/>
-      <c r="C2" s="304"/>
-      <c r="D2" s="304"/>
-      <c r="E2" s="305"/>
+      <c r="A2" s="305" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="306"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="306"/>
+      <c r="E2" s="307"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -4658,7 +4676,7 @@
       <c r="A4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="346">
+      <c r="B4" s="298">
         <v>8500368</v>
       </c>
       <c r="C4" s="69"/>
@@ -4666,7 +4684,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="73">
-        <v>1208283.8600000001</v>
+        <v>889070.63499999989</v>
       </c>
       <c r="F4" s="64"/>
       <c r="G4" s="56"/>
@@ -4698,14 +4716,14 @@
         <v>6</v>
       </c>
       <c r="B5" s="72">
-        <v>34382.875</v>
+        <v>63830.249999999993</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="69" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="73">
-        <v>2805874</v>
+        <v>3605874</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="56"/>
@@ -4738,14 +4756,14 @@
       </c>
       <c r="B6" s="72">
         <f>B4+B5</f>
-        <v>8534750.875</v>
+        <v>8564198.25</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="74">
-        <v>817917</v>
+        <v>1118685</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="56"/>
@@ -4782,7 +4800,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="75">
-        <v>2111068</v>
+        <v>2172473</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="56"/>
@@ -4814,11 +4832,11 @@
         <v>15</v>
       </c>
       <c r="B8" s="72">
-        <v>3990</v>
+        <v>7850</v>
       </c>
       <c r="C8" s="71"/>
       <c r="D8" s="69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="73">
         <v>51820</v>
@@ -4857,7 +4875,7 @@
       </c>
       <c r="C9" s="71"/>
       <c r="D9" s="71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="73">
         <v>52239</v>
@@ -4893,14 +4911,14 @@
       </c>
       <c r="B10" s="77">
         <f>B5-B8-B9</f>
-        <v>30392.875</v>
+        <v>55980.249999999993</v>
       </c>
       <c r="C10" s="71"/>
       <c r="D10" s="69" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="75">
-        <v>1483559.0149999997</v>
+        <v>666186.61500000022</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="50"/>
@@ -5003,7 +5021,7 @@
       </c>
       <c r="B13" s="76">
         <f>B6-B8-B11+B12-B9</f>
-        <v>8530760.875</v>
+        <v>8556348.25</v>
       </c>
       <c r="C13" s="71"/>
       <c r="D13" s="71" t="s">
@@ -5011,7 +5029,7 @@
       </c>
       <c r="E13" s="75">
         <f>E4+E5+E6+E7+E8+E9+E10</f>
-        <v>8530760.875</v>
+        <v>8556348.25</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="85">
@@ -5075,13 +5093,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="306" t="s">
+      <c r="A15" s="308" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="307"/>
-      <c r="C15" s="307"/>
-      <c r="D15" s="307"/>
-      <c r="E15" s="308"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="310"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="28"/>
@@ -5109,7 +5127,7 @@
     </row>
     <row r="16" spans="1:29">
       <c r="A16" s="81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="101">
         <v>53388</v>
@@ -5148,7 +5166,7 @@
     </row>
     <row r="17" spans="1:29">
       <c r="A17" s="82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="102">
         <v>36458</v>
@@ -5186,7 +5204,7 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" s="81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="101">
         <v>33220</v>
@@ -5224,7 +5242,7 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" s="82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="102">
         <v>32111</v>
@@ -5262,7 +5280,7 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="103">
         <v>27372</v>
@@ -5303,11 +5321,11 @@
         <v>19</v>
       </c>
       <c r="B21" s="53">
-        <v>305940</v>
+        <v>379960</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="106">
         <v>27000</v>
@@ -5345,7 +5363,7 @@
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="106">
         <v>36000</v>
@@ -5383,7 +5401,7 @@
       </c>
       <c r="C23" s="99"/>
       <c r="D23" s="100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E23" s="107">
         <v>129725</v>
@@ -10269,8 +10287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI246"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView topLeftCell="A31" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10295,14 +10313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="315" t="s">
+      <c r="A1" s="317" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="315"/>
-      <c r="C1" s="315"/>
-      <c r="D1" s="315"/>
-      <c r="E1" s="315"/>
-      <c r="F1" s="315"/>
+      <c r="B1" s="317"/>
+      <c r="C1" s="317"/>
+      <c r="D1" s="317"/>
+      <c r="E1" s="317"/>
+      <c r="F1" s="317"/>
       <c r="L1" s="110"/>
       <c r="M1" s="111"/>
       <c r="N1" s="111"/>
@@ -10355,14 +10373,14 @@
       <c r="BI1" s="111"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="316" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="316"/>
-      <c r="C2" s="316"/>
-      <c r="D2" s="316"/>
-      <c r="E2" s="316"/>
-      <c r="F2" s="316"/>
+      <c r="A2" s="318" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="318"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
       <c r="L2" s="110"/>
       <c r="M2" s="111"/>
       <c r="N2" s="111"/>
@@ -10415,14 +10433,14 @@
       <c r="BI2" s="111"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="317" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="317"/>
-      <c r="C3" s="317"/>
-      <c r="D3" s="317"/>
-      <c r="E3" s="317"/>
-      <c r="F3" s="317"/>
+      <c r="A3" s="319" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="319"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
       <c r="K3" s="111"/>
       <c r="L3" s="110"/>
       <c r="M3" s="111"/>
@@ -10480,16 +10498,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="113" t="s">
+      <c r="D4" s="113" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="E4" s="113" t="s">
         <v>53</v>
-      </c>
-      <c r="E4" s="113" t="s">
-        <v>54</v>
       </c>
       <c r="F4" s="114" t="s">
         <v>1</v>
@@ -10570,7 +10588,7 @@
       <c r="F5" s="117"/>
       <c r="G5" s="110"/>
       <c r="H5" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="119"/>
       <c r="J5" s="118"/>
@@ -10634,19 +10652,19 @@
         <v>740405</v>
       </c>
       <c r="C6" s="121">
-        <v>811005</v>
+        <v>821005</v>
       </c>
       <c r="D6" s="121">
         <v>2520</v>
       </c>
       <c r="E6" s="121">
         <f t="shared" ref="E6:E32" si="0">C6+D6</f>
-        <v>813525</v>
+        <v>823525</v>
       </c>
       <c r="F6" s="122"/>
       <c r="G6" s="123"/>
       <c r="H6" s="124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="119"/>
       <c r="J6" s="118"/>
@@ -10703,18 +10721,26 @@
       <c r="BI6" s="111"/>
     </row>
     <row r="7" spans="1:61" ht="12.6" customHeight="1">
-      <c r="A7" s="120"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
+      <c r="A7" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="121">
+        <v>1199745</v>
+      </c>
+      <c r="C7" s="121">
+        <v>1124500</v>
+      </c>
+      <c r="D7" s="121">
+        <v>3840</v>
+      </c>
       <c r="E7" s="121">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1128340</v>
       </c>
       <c r="F7" s="122"/>
       <c r="G7" s="123"/>
       <c r="H7" s="124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="119"/>
       <c r="J7" s="118"/>
@@ -10782,7 +10808,7 @@
       <c r="F8" s="129"/>
       <c r="G8" s="110"/>
       <c r="H8" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="119"/>
       <c r="J8" s="119"/>
@@ -10850,7 +10876,7 @@
       <c r="F9" s="130"/>
       <c r="G9" s="110"/>
       <c r="H9" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="119"/>
       <c r="J9" s="119"/>
@@ -10918,7 +10944,7 @@
       <c r="F10" s="132"/>
       <c r="G10" s="110"/>
       <c r="H10" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="119"/>
       <c r="J10" s="119"/>
@@ -10986,7 +11012,7 @@
       <c r="F11" s="129"/>
       <c r="G11" s="133"/>
       <c r="H11" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="119"/>
       <c r="J11" s="119"/>
@@ -11054,7 +11080,7 @@
       <c r="F12" s="129"/>
       <c r="G12" s="133"/>
       <c r="H12" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="119"/>
       <c r="J12" s="119"/>
@@ -11122,7 +11148,7 @@
       <c r="F13" s="132"/>
       <c r="G13" s="110"/>
       <c r="H13" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="119"/>
       <c r="J13" s="119"/>
@@ -11190,7 +11216,7 @@
       <c r="F14" s="130"/>
       <c r="G14" s="110"/>
       <c r="H14" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I14" s="119"/>
       <c r="J14" s="119"/>
@@ -11258,7 +11284,7 @@
       <c r="F15" s="129"/>
       <c r="G15" s="133"/>
       <c r="H15" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="119"/>
       <c r="J15" s="119"/>
@@ -11326,7 +11352,7 @@
       <c r="F16" s="129"/>
       <c r="G16" s="133"/>
       <c r="H16" s="119" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I16" s="119"/>
       <c r="J16" s="119"/>
@@ -11394,7 +11420,7 @@
       <c r="F17" s="122"/>
       <c r="G17" s="123"/>
       <c r="H17" s="124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="119"/>
       <c r="J17" s="119"/>
@@ -11462,7 +11488,7 @@
       <c r="F18" s="132"/>
       <c r="G18" s="110"/>
       <c r="H18" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="119"/>
       <c r="J18" s="119"/>
@@ -11530,7 +11556,7 @@
       <c r="F19" s="130"/>
       <c r="G19" s="110"/>
       <c r="H19" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I19" s="119"/>
       <c r="J19" s="119"/>
@@ -11598,7 +11624,7 @@
       <c r="F20" s="122"/>
       <c r="G20" s="110"/>
       <c r="H20" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I20" s="119"/>
       <c r="J20" s="119"/>
@@ -11666,7 +11692,7 @@
       <c r="F21" s="122"/>
       <c r="G21" s="110"/>
       <c r="H21" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I21" s="119"/>
       <c r="J21" s="119"/>
@@ -11734,7 +11760,7 @@
       <c r="F22" s="122"/>
       <c r="G22" s="110"/>
       <c r="H22" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="119"/>
       <c r="J22" s="119"/>
@@ -11802,7 +11828,7 @@
       <c r="F23" s="122"/>
       <c r="G23" s="123"/>
       <c r="H23" s="124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I23" s="119"/>
       <c r="J23" s="119"/>
@@ -11870,7 +11896,7 @@
       <c r="F24" s="122"/>
       <c r="G24" s="123"/>
       <c r="H24" s="124" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="119"/>
       <c r="J24" s="119"/>
@@ -11938,7 +11964,7 @@
       <c r="F25" s="130"/>
       <c r="G25" s="110"/>
       <c r="H25" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I25" s="119"/>
       <c r="J25" s="119"/>
@@ -12006,7 +12032,7 @@
       <c r="F26" s="138"/>
       <c r="G26" s="110"/>
       <c r="H26" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="119"/>
       <c r="J26" s="119"/>
@@ -12074,7 +12100,7 @@
       <c r="F27" s="130"/>
       <c r="G27" s="110"/>
       <c r="H27" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I27" s="119"/>
       <c r="J27" s="119"/>
@@ -12142,7 +12168,7 @@
       <c r="F28" s="130"/>
       <c r="G28" s="110"/>
       <c r="H28" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I28" s="119"/>
       <c r="J28" s="119"/>
@@ -12210,7 +12236,7 @@
       <c r="F29" s="130"/>
       <c r="G29" s="110"/>
       <c r="H29" s="118" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I29" s="119"/>
       <c r="J29" s="119"/>
@@ -12278,7 +12304,7 @@
       <c r="F30" s="129"/>
       <c r="G30" s="140"/>
       <c r="H30" s="141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I30" s="142"/>
       <c r="J30" s="141"/>
@@ -12346,7 +12372,7 @@
       <c r="F31" s="129"/>
       <c r="G31" s="143"/>
       <c r="H31" s="141" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31" s="142"/>
       <c r="J31" s="144"/>
@@ -12414,7 +12440,7 @@
       <c r="F32" s="129"/>
       <c r="G32" s="146"/>
       <c r="H32" s="147" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="148">
         <v>84910</v>
@@ -12480,27 +12506,27 @@
       </c>
       <c r="B33" s="121">
         <f>SUM(B5:B32)</f>
-        <v>1369025</v>
+        <v>2568770</v>
       </c>
       <c r="C33" s="121">
         <f>SUM(C5:C32)</f>
-        <v>1310285</v>
+        <v>2444785</v>
       </c>
       <c r="D33" s="121">
         <f>SUM(D5:D32)</f>
-        <v>4010</v>
+        <v>7850</v>
       </c>
       <c r="E33" s="121">
         <f>SUM(E5:E32)</f>
-        <v>1314295</v>
+        <v>2452635</v>
       </c>
       <c r="F33" s="129">
         <f>B33-E33</f>
-        <v>54730</v>
+        <v>116135</v>
       </c>
       <c r="G33" s="143"/>
       <c r="H33" s="151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I33" s="148"/>
       <c r="J33" s="152"/>
@@ -12620,12 +12646,12 @@
       <c r="BI34" s="111"/>
     </row>
     <row r="35" spans="1:61" ht="12.6" customHeight="1" thickBot="1">
-      <c r="A35" s="318" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="319"/>
-      <c r="C35" s="319"/>
-      <c r="D35" s="320"/>
+      <c r="A35" s="320" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="321"/>
+      <c r="C35" s="321"/>
+      <c r="D35" s="322"/>
       <c r="E35" s="127"/>
       <c r="F35" s="129"/>
       <c r="G35" s="143"/>
@@ -12686,13 +12712,13 @@
     </row>
     <row r="36" spans="1:61" ht="12.6" customHeight="1">
       <c r="A36" s="153" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="154" t="s">
+      <c r="C36" s="154" t="s">
         <v>60</v>
-      </c>
-      <c r="C36" s="154" t="s">
-        <v>61</v>
       </c>
       <c r="D36" s="155" t="s">
         <v>0</v>
@@ -12763,16 +12789,16 @@
     </row>
     <row r="37" spans="1:61" ht="12.6" customHeight="1">
       <c r="A37" s="150" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="160" t="s">
         <v>62</v>
       </c>
-      <c r="B37" s="160" t="s">
-        <v>63</v>
-      </c>
       <c r="C37" s="121">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="D37" s="114" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="E37" s="127"/>
       <c r="F37" s="122"/>
@@ -12834,10 +12860,10 @@
     </row>
     <row r="38" spans="1:61" ht="12.6" customHeight="1">
       <c r="A38" s="150" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B38" s="114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" s="121">
         <v>3500</v>
@@ -12905,16 +12931,16 @@
     </row>
     <row r="39" spans="1:61" ht="12.6" customHeight="1">
       <c r="A39" s="150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="150" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="121">
-        <v>5830</v>
+        <v>5000</v>
       </c>
       <c r="D39" s="161" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="E39" s="126"/>
       <c r="F39" s="122"/>
@@ -12976,10 +13002,10 @@
     </row>
     <row r="40" spans="1:61" ht="12.6" customHeight="1">
       <c r="A40" s="150" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="114" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" s="121">
         <v>9800</v>
@@ -13047,10 +13073,10 @@
     </row>
     <row r="41" spans="1:61" ht="12.6" customHeight="1">
       <c r="A41" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="114" t="s">
         <v>68</v>
-      </c>
-      <c r="B41" s="114" t="s">
-        <v>69</v>
       </c>
       <c r="C41" s="121">
         <v>4000</v>
@@ -13118,16 +13144,16 @@
     </row>
     <row r="42" spans="1:61" ht="12.6" customHeight="1">
       <c r="A42" s="164" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="114" t="s">
         <v>70</v>
-      </c>
-      <c r="B42" s="114" t="s">
-        <v>71</v>
       </c>
       <c r="C42" s="121">
         <v>1190</v>
       </c>
       <c r="D42" s="114" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F42" s="168"/>
       <c r="G42" s="169"/>
@@ -13192,13 +13218,13 @@
       <c r="C43" s="121"/>
       <c r="D43" s="114"/>
       <c r="E43" s="127"/>
-      <c r="F43" s="321" t="s">
-        <v>73</v>
-      </c>
-      <c r="G43" s="322"/>
-      <c r="H43" s="322"/>
-      <c r="I43" s="322"/>
-      <c r="J43" s="323"/>
+      <c r="F43" s="323" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" s="324"/>
+      <c r="H43" s="324"/>
+      <c r="I43" s="324"/>
+      <c r="J43" s="325"/>
       <c r="K43" s="174"/>
       <c r="L43" s="118"/>
       <c r="M43" s="111"/>
@@ -13386,7 +13412,7 @@
         <v>15000</v>
       </c>
       <c r="D46" s="188" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E46" s="126"/>
       <c r="F46" s="150"/>
@@ -13454,7 +13480,7 @@
         <v>93000</v>
       </c>
       <c r="D47" s="191" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E47" s="126"/>
       <c r="F47" s="150"/>
@@ -13522,7 +13548,7 @@
         <v>208875</v>
       </c>
       <c r="D48" s="188" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E48" s="126"/>
       <c r="F48" s="150"/>
@@ -13590,7 +13616,7 @@
         <v>267297</v>
       </c>
       <c r="D49" s="191" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E49" s="126"/>
       <c r="F49" s="150"/>
@@ -13658,7 +13684,7 @@
         <v>62000</v>
       </c>
       <c r="D50" s="186" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E50" s="126"/>
       <c r="F50" s="150"/>
@@ -13719,14 +13745,14 @@
     </row>
     <row r="51" spans="1:61" ht="12" customHeight="1">
       <c r="A51" s="193" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B51" s="118"/>
       <c r="C51" s="190">
         <v>54450</v>
       </c>
       <c r="D51" s="194" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="126"/>
       <c r="F51" s="118"/>
@@ -13788,14 +13814,14 @@
     </row>
     <row r="52" spans="1:61" ht="12" customHeight="1">
       <c r="A52" s="195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="191"/>
       <c r="C52" s="196">
-        <v>199630</v>
+        <v>174830</v>
       </c>
       <c r="D52" s="186" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="E52" s="126"/>
       <c r="F52" s="150"/>
@@ -13857,14 +13883,14 @@
     </row>
     <row r="53" spans="1:61" ht="12" customHeight="1">
       <c r="A53" s="189" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" s="118"/>
       <c r="C53" s="190">
-        <v>322760</v>
+        <v>379960</v>
       </c>
       <c r="D53" s="197" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="E53" s="126"/>
       <c r="F53" s="119"/>
@@ -13926,14 +13952,14 @@
     </row>
     <row r="54" spans="1:61" ht="12" customHeight="1">
       <c r="A54" s="189" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B54" s="118"/>
       <c r="C54" s="190">
-        <v>190905</v>
+        <v>191555</v>
       </c>
       <c r="D54" s="186" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="E54" s="126"/>
       <c r="F54" s="150"/>
@@ -13994,10 +14020,16 @@
       <c r="BI54" s="111"/>
     </row>
     <row r="55" spans="1:61" ht="12" customHeight="1">
-      <c r="A55" s="195"/>
+      <c r="A55" s="195" t="s">
+        <v>187</v>
+      </c>
       <c r="B55" s="191"/>
-      <c r="C55" s="190"/>
-      <c r="D55" s="197"/>
+      <c r="C55" s="190">
+        <v>22710</v>
+      </c>
+      <c r="D55" s="197" t="s">
+        <v>183</v>
+      </c>
       <c r="E55" s="126"/>
       <c r="F55" s="118"/>
       <c r="G55" s="150"/>
@@ -14246,10 +14278,10 @@
       <c r="BI58" s="111"/>
     </row>
     <row r="59" spans="1:61" ht="12" customHeight="1">
-      <c r="A59" s="324" t="s">
+      <c r="A59" s="326" t="s">
         <v>35</v>
       </c>
-      <c r="B59" s="325"/>
+      <c r="B59" s="327"/>
       <c r="C59" s="190"/>
       <c r="D59" s="194"/>
       <c r="E59" s="126"/>
@@ -14312,14 +14344,14 @@
     </row>
     <row r="60" spans="1:61" ht="12" customHeight="1">
       <c r="A60" s="189" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" s="118"/>
       <c r="C60" s="190">
         <v>2000</v>
       </c>
       <c r="D60" s="197" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60" s="126"/>
       <c r="F60" s="118"/>
@@ -14381,14 +14413,14 @@
     </row>
     <row r="61" spans="1:61" ht="12" customHeight="1">
       <c r="A61" s="193" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" s="118"/>
       <c r="C61" s="190">
         <v>9500</v>
       </c>
       <c r="D61" s="197" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E61" s="127"/>
       <c r="F61" s="118"/>
@@ -14450,32 +14482,32 @@
     </row>
     <row r="62" spans="1:61" ht="12.75" customHeight="1">
       <c r="A62" s="293" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="159" t="s">
         <v>89</v>
-      </c>
-      <c r="B62" s="159" t="s">
-        <v>90</v>
       </c>
       <c r="C62" s="294">
         <v>2000</v>
       </c>
       <c r="D62" s="297" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="135"/>
-      <c r="F62" s="309" t="s">
-        <v>91</v>
-      </c>
-      <c r="G62" s="309"/>
+      <c r="F62" s="311" t="s">
+        <v>90</v>
+      </c>
+      <c r="G62" s="311"/>
       <c r="H62" s="198"/>
       <c r="I62" s="198"/>
       <c r="J62" s="199" t="s">
+        <v>91</v>
+      </c>
+      <c r="K62" s="200" t="s">
         <v>92</v>
       </c>
-      <c r="K62" s="200" t="s">
+      <c r="L62" s="201" t="s">
         <v>93</v>
-      </c>
-      <c r="L62" s="201" t="s">
-        <v>94</v>
       </c>
       <c r="M62" s="111"/>
       <c r="N62" s="111"/>
@@ -14529,28 +14561,28 @@
     </row>
     <row r="63" spans="1:61" ht="12.75" customHeight="1">
       <c r="A63" s="193" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" s="118"/>
       <c r="C63" s="190">
         <v>53388</v>
       </c>
       <c r="D63" s="197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E63" s="126"/>
       <c r="F63" s="202"/>
       <c r="G63" s="203" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" s="203" t="s">
         <v>62</v>
-      </c>
-      <c r="H63" s="203" t="s">
-        <v>63</v>
       </c>
       <c r="I63" s="119">
         <v>5500</v>
       </c>
       <c r="J63" s="118" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K63" s="204">
         <v>5500</v>
@@ -14611,28 +14643,28 @@
     </row>
     <row r="64" spans="1:61" ht="12.75" customHeight="1">
       <c r="A64" s="193" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64" s="118"/>
       <c r="C64" s="190">
         <v>36458</v>
       </c>
       <c r="D64" s="197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E64" s="126"/>
       <c r="F64" s="206"/>
       <c r="G64" s="203" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H64" s="203" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" s="119">
         <v>1915</v>
       </c>
       <c r="J64" s="192" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K64" s="204">
         <v>1915</v>
@@ -14693,28 +14725,28 @@
     </row>
     <row r="65" spans="1:61" ht="12.75" customHeight="1">
       <c r="A65" s="193" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="118"/>
       <c r="C65" s="190">
         <v>33220</v>
       </c>
       <c r="D65" s="197" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" s="126"/>
       <c r="F65" s="202"/>
       <c r="G65" s="207" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H65" s="207" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I65" s="208">
         <v>7000</v>
       </c>
       <c r="J65" s="208" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K65" s="204">
         <v>7000</v>
@@ -14775,14 +14807,14 @@
     </row>
     <row r="66" spans="1:61" ht="12.75" customHeight="1">
       <c r="A66" s="193" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="191"/>
       <c r="C66" s="190">
         <v>27372</v>
       </c>
       <c r="D66" s="197" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="126"/>
       <c r="F66" s="209"/>
@@ -14794,7 +14826,7 @@
         <v>15000</v>
       </c>
       <c r="J66" s="119" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K66" s="204">
         <v>15000</v>
@@ -14855,26 +14887,26 @@
     </row>
     <row r="67" spans="1:61" ht="12.75" customHeight="1">
       <c r="A67" s="193" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="118"/>
       <c r="C67" s="190">
         <v>4260</v>
       </c>
       <c r="D67" s="191" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E67" s="126"/>
       <c r="F67" s="202"/>
       <c r="G67" s="203" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H67" s="203"/>
       <c r="I67" s="119">
         <v>460</v>
       </c>
       <c r="J67" s="192" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K67" s="204">
         <v>460</v>
@@ -14935,28 +14967,28 @@
     </row>
     <row r="68" spans="1:61" ht="12.75" customHeight="1">
       <c r="A68" s="193" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B68" s="191"/>
       <c r="C68" s="190">
         <v>13075</v>
       </c>
       <c r="D68" s="197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E68" s="126"/>
       <c r="F68" s="202"/>
       <c r="G68" s="203" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H68" s="203" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I68" s="119">
         <v>9300</v>
       </c>
       <c r="J68" s="192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K68" s="204">
         <v>9300</v>
@@ -15017,28 +15049,28 @@
     </row>
     <row r="69" spans="1:61" ht="12.75" customHeight="1">
       <c r="A69" s="193" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B69" s="118"/>
       <c r="C69" s="190">
         <v>32111</v>
       </c>
       <c r="D69" s="197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E69" s="111"/>
       <c r="F69" s="202"/>
       <c r="G69" s="207" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" s="207" t="s">
         <v>112</v>
-      </c>
-      <c r="H69" s="207" t="s">
-        <v>113</v>
       </c>
       <c r="I69" s="208">
         <v>9300</v>
       </c>
       <c r="J69" s="210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K69" s="204">
         <v>9300</v>
@@ -15099,26 +15131,26 @@
     </row>
     <row r="70" spans="1:61" ht="12.75" customHeight="1">
       <c r="A70" s="193" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B70" s="191"/>
       <c r="C70" s="190">
         <v>16821</v>
       </c>
       <c r="D70" s="197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" s="126"/>
       <c r="F70" s="209"/>
       <c r="G70" s="207" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H70" s="207"/>
       <c r="I70" s="208">
         <v>6070</v>
       </c>
       <c r="J70" s="210" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K70" s="204">
         <v>6070</v>
@@ -15179,28 +15211,28 @@
     </row>
     <row r="71" spans="1:61" ht="12.75" customHeight="1">
       <c r="A71" s="189" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" s="118"/>
       <c r="C71" s="190">
         <v>19616</v>
       </c>
       <c r="D71" s="197" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="127"/>
       <c r="F71" s="209"/>
       <c r="G71" s="203" t="s">
+        <v>118</v>
+      </c>
+      <c r="H71" s="203" t="s">
         <v>119</v>
-      </c>
-      <c r="H71" s="203" t="s">
-        <v>120</v>
       </c>
       <c r="I71" s="119">
         <v>2000</v>
       </c>
       <c r="J71" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K71" s="204">
         <v>2000</v>
@@ -15261,28 +15293,28 @@
     </row>
     <row r="72" spans="1:61" ht="12.75" customHeight="1">
       <c r="A72" s="193" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" s="118"/>
       <c r="C72" s="190">
         <v>13000</v>
       </c>
       <c r="D72" s="197" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72" s="127"/>
       <c r="F72" s="209"/>
       <c r="G72" s="203" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" s="203" t="s">
         <v>122</v>
-      </c>
-      <c r="H72" s="203" t="s">
-        <v>123</v>
       </c>
       <c r="I72" s="119">
         <v>2500</v>
       </c>
       <c r="J72" s="192" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K72" s="204">
         <v>2500</v>
@@ -15343,28 +15375,28 @@
     </row>
     <row r="73" spans="1:61" ht="12.75" customHeight="1">
       <c r="A73" s="189" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73" s="118"/>
       <c r="C73" s="190">
         <v>3500</v>
       </c>
       <c r="D73" s="197" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E73" s="127"/>
       <c r="F73" s="209"/>
       <c r="G73" s="203" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H73" s="203" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I73" s="119">
         <v>2000</v>
       </c>
       <c r="J73" s="192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K73" s="204">
         <v>2000</v>
@@ -15425,28 +15457,28 @@
     </row>
     <row r="74" spans="1:61" ht="12.75" customHeight="1">
       <c r="A74" s="193" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="118"/>
       <c r="C74" s="190">
         <v>14560</v>
       </c>
       <c r="D74" s="191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E74" s="127"/>
       <c r="F74" s="209"/>
       <c r="G74" s="203" t="s">
+        <v>127</v>
+      </c>
+      <c r="H74" s="203" t="s">
         <v>128</v>
-      </c>
-      <c r="H74" s="203" t="s">
-        <v>129</v>
       </c>
       <c r="I74" s="119">
         <v>5440</v>
       </c>
       <c r="J74" s="192" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K74" s="204">
         <v>5440</v>
@@ -15507,28 +15539,28 @@
     </row>
     <row r="75" spans="1:61" ht="12.75" customHeight="1">
       <c r="A75" s="193" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B75" s="118"/>
       <c r="C75" s="190">
         <v>29000</v>
       </c>
       <c r="D75" s="194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E75" s="126"/>
       <c r="F75" s="209"/>
       <c r="G75" s="203" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H75" s="203" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I75" s="119">
         <v>6000</v>
       </c>
       <c r="J75" s="119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K75" s="204">
         <v>6000</v>
@@ -15589,14 +15621,14 @@
     </row>
     <row r="76" spans="1:61" ht="12.75" customHeight="1">
       <c r="A76" s="193" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B76" s="118"/>
       <c r="C76" s="190">
         <v>27000</v>
       </c>
       <c r="D76" s="194" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E76" s="126"/>
       <c r="F76" s="209"/>
@@ -15608,7 +15640,7 @@
         <v>93000</v>
       </c>
       <c r="J76" s="192" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K76" s="204">
         <v>93000</v>
@@ -15669,14 +15701,14 @@
     </row>
     <row r="77" spans="1:61" ht="12.75" customHeight="1">
       <c r="A77" s="189" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B77" s="118"/>
       <c r="C77" s="190">
-        <v>8000</v>
+        <v>6000</v>
       </c>
       <c r="D77" s="194" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E77" s="126"/>
       <c r="F77" s="202"/>
@@ -15688,7 +15720,7 @@
         <v>208875</v>
       </c>
       <c r="J77" s="119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K77" s="204">
         <v>208875</v>
@@ -15749,16 +15781,16 @@
     </row>
     <row r="78" spans="1:61" ht="12.75" customHeight="1">
       <c r="A78" s="293" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B78" s="159" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="294">
         <v>1210</v>
       </c>
       <c r="D78" s="295" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" s="126"/>
       <c r="F78" s="209"/>
@@ -15770,7 +15802,7 @@
         <v>267297</v>
       </c>
       <c r="J78" s="118" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K78" s="204">
         <v>267297</v>
@@ -15831,14 +15863,14 @@
     </row>
     <row r="79" spans="1:61" ht="12.75" customHeight="1">
       <c r="A79" s="193" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B79" s="118"/>
       <c r="C79" s="190">
         <v>9000</v>
       </c>
       <c r="D79" s="194" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E79" s="126"/>
       <c r="F79" s="209"/>
@@ -15850,7 +15882,7 @@
         <v>62000</v>
       </c>
       <c r="J79" s="118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K79" s="204">
         <v>62000</v>
@@ -15911,26 +15943,26 @@
     </row>
     <row r="80" spans="1:61" ht="12.75" customHeight="1">
       <c r="A80" s="193" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B80" s="118"/>
       <c r="C80" s="190">
         <v>13000</v>
       </c>
       <c r="D80" s="194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E80" s="126"/>
       <c r="F80" s="209"/>
       <c r="G80" s="203" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H80" s="203"/>
       <c r="I80" s="119">
         <v>54450</v>
       </c>
       <c r="J80" s="192" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K80" s="204">
         <v>54450</v>
@@ -15991,26 +16023,26 @@
     </row>
     <row r="81" spans="1:61" ht="12.75" customHeight="1">
       <c r="A81" s="193" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B81" s="118"/>
       <c r="C81" s="190">
         <v>5000</v>
       </c>
       <c r="D81" s="194" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E81" s="126"/>
       <c r="F81" s="212"/>
       <c r="G81" s="203" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H81" s="203"/>
       <c r="I81" s="119">
         <v>164630</v>
       </c>
       <c r="J81" s="192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K81" s="204">
         <v>164630</v>
@@ -16071,26 +16103,26 @@
     </row>
     <row r="82" spans="1:61" ht="12.75" customHeight="1">
       <c r="A82" s="193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="118"/>
       <c r="C82" s="190">
         <v>129725</v>
       </c>
       <c r="D82" s="194" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E82" s="127"/>
       <c r="F82" s="213"/>
       <c r="G82" s="203" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H82" s="203"/>
       <c r="I82" s="119">
         <v>305940</v>
       </c>
       <c r="J82" s="192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K82" s="204">
         <v>305940</v>
@@ -16151,26 +16183,26 @@
     </row>
     <row r="83" spans="1:61" ht="12.75" customHeight="1">
       <c r="A83" s="189" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B83" s="197"/>
       <c r="C83" s="190">
         <v>36000</v>
       </c>
       <c r="D83" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="127"/>
       <c r="F83" s="213"/>
       <c r="G83" s="203" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H83" s="203"/>
       <c r="I83" s="119">
         <v>190865</v>
       </c>
       <c r="J83" s="119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K83" s="204">
         <v>190865</v>
@@ -16231,19 +16263,19 @@
     </row>
     <row r="84" spans="1:61" ht="12.75" customHeight="1">
       <c r="A84" s="193" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" s="118"/>
       <c r="C84" s="190">
         <v>3000</v>
       </c>
       <c r="D84" s="194" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E84" s="127"/>
       <c r="F84" s="212"/>
       <c r="G84" s="203" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H84" s="203">
         <v>1763999686</v>
@@ -16252,7 +16284,7 @@
         <v>20340</v>
       </c>
       <c r="J84" s="192" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K84" s="204">
         <v>20340</v>
@@ -16313,26 +16345,26 @@
     </row>
     <row r="85" spans="1:61" ht="12.75" customHeight="1">
       <c r="A85" s="193" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B85" s="118"/>
       <c r="C85" s="190">
         <v>10000</v>
       </c>
       <c r="D85" s="194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="127"/>
       <c r="F85" s="212"/>
       <c r="G85" s="207" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H85" s="207"/>
       <c r="I85" s="208">
         <v>1860</v>
       </c>
       <c r="J85" s="210" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K85" s="204">
         <v>1860</v>
@@ -16393,28 +16425,28 @@
     </row>
     <row r="86" spans="1:61" ht="12.75" customHeight="1">
       <c r="A86" s="193" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B86" s="118"/>
       <c r="C86" s="190">
         <v>8000</v>
       </c>
       <c r="D86" s="194" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E86" s="127"/>
       <c r="F86" s="209"/>
       <c r="G86" s="203" t="s">
+        <v>69</v>
+      </c>
+      <c r="H86" s="203" t="s">
         <v>70</v>
-      </c>
-      <c r="H86" s="203" t="s">
-        <v>71</v>
       </c>
       <c r="I86" s="119">
         <v>1190</v>
       </c>
       <c r="J86" s="192" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K86" s="204">
         <v>1190</v>
@@ -16475,30 +16507,30 @@
     </row>
     <row r="87" spans="1:61" ht="12.75" customHeight="1">
       <c r="A87" s="293" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87" s="159" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="294">
         <v>4000</v>
       </c>
       <c r="D87" s="295" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E87" s="126"/>
       <c r="F87" s="209"/>
       <c r="G87" s="203" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="203" t="s">
         <v>68</v>
-      </c>
-      <c r="H87" s="203" t="s">
-        <v>69</v>
       </c>
       <c r="I87" s="119">
         <v>10600</v>
       </c>
       <c r="J87" s="119" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K87" s="204">
         <v>10600</v>
@@ -16559,19 +16591,19 @@
     </row>
     <row r="88" spans="1:61" ht="12.75" customHeight="1">
       <c r="A88" s="189" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B88" s="118"/>
       <c r="C88" s="190">
         <v>5190</v>
       </c>
       <c r="D88" s="194" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E88" s="126"/>
       <c r="F88" s="202"/>
       <c r="G88" s="203" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H88" s="203">
         <v>1758900692</v>
@@ -16580,7 +16612,7 @@
         <v>9000</v>
       </c>
       <c r="J88" s="192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K88" s="204">
         <v>9000</v>
@@ -16641,28 +16673,28 @@
     </row>
     <row r="89" spans="1:61" ht="12.75" customHeight="1">
       <c r="A89" s="193" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B89" s="118"/>
       <c r="C89" s="190">
-        <v>15000</v>
+        <v>23275</v>
       </c>
       <c r="D89" s="194" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="E89" s="126"/>
       <c r="F89" s="209"/>
       <c r="G89" s="207" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H89" s="207" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I89" s="208">
         <v>6000</v>
       </c>
       <c r="J89" s="210" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K89" s="204">
         <v>6000</v>
@@ -16723,30 +16755,30 @@
     </row>
     <row r="90" spans="1:61" ht="12.6" customHeight="1">
       <c r="A90" s="293" t="s">
+        <v>154</v>
+      </c>
+      <c r="B90" s="159" t="s">
         <v>155</v>
-      </c>
-      <c r="B90" s="159" t="s">
-        <v>156</v>
       </c>
       <c r="C90" s="294">
         <v>2000</v>
       </c>
       <c r="D90" s="295" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E90" s="126"/>
       <c r="F90" s="209"/>
       <c r="G90" s="203" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H90" s="203" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I90" s="119">
         <v>6300</v>
       </c>
       <c r="J90" s="192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K90" s="204">
         <v>6300</v>
@@ -16807,16 +16839,16 @@
     </row>
     <row r="91" spans="1:61" ht="12.75" customHeight="1">
       <c r="A91" s="293" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B91" s="159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="158">
         <v>5000</v>
       </c>
       <c r="D91" s="295" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E91" s="126"/>
       <c r="F91" s="209"/>
@@ -16881,27 +16913,27 @@
     </row>
     <row r="92" spans="1:61">
       <c r="A92" s="293" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92" s="296" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="294">
         <v>5500</v>
       </c>
       <c r="D92" s="296" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F92" s="209"/>
       <c r="G92" s="203" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H92" s="203"/>
       <c r="I92" s="119">
         <v>2000</v>
       </c>
       <c r="J92" s="192" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K92" s="204">
         <v>2000</v>
@@ -16967,14 +16999,14 @@
       <c r="D93" s="191"/>
       <c r="F93" s="209"/>
       <c r="G93" s="203" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H93" s="203"/>
       <c r="I93" s="119">
         <v>9500</v>
       </c>
       <c r="J93" s="214" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K93" s="204">
         <v>9500</v>
@@ -17040,16 +17072,16 @@
       <c r="D94" s="191"/>
       <c r="F94" s="202"/>
       <c r="G94" s="207" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" s="207" t="s">
         <v>89</v>
-      </c>
-      <c r="H94" s="207" t="s">
-        <v>90</v>
       </c>
       <c r="I94" s="208">
         <v>2000</v>
       </c>
       <c r="J94" s="210" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K94" s="204">
         <v>2000</v>
@@ -17115,14 +17147,14 @@
       <c r="D95" s="191"/>
       <c r="F95" s="209"/>
       <c r="G95" s="203" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H95" s="203"/>
       <c r="I95" s="119">
         <v>53388</v>
       </c>
       <c r="J95" s="192" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K95" s="204">
         <v>53388</v>
@@ -17188,14 +17220,14 @@
       <c r="D96" s="191"/>
       <c r="F96" s="213"/>
       <c r="G96" s="207" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H96" s="207"/>
       <c r="I96" s="208">
         <v>36458</v>
       </c>
       <c r="J96" s="210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K96" s="204">
         <v>36458</v>
@@ -17261,14 +17293,14 @@
       <c r="D97" s="191"/>
       <c r="F97" s="213"/>
       <c r="G97" s="207" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H97" s="207"/>
       <c r="I97" s="208">
         <v>33220</v>
       </c>
       <c r="J97" s="210" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K97" s="204">
         <v>33220</v>
@@ -17334,14 +17366,14 @@
       <c r="D98" s="191"/>
       <c r="F98" s="213"/>
       <c r="G98" s="207" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H98" s="207"/>
       <c r="I98" s="208">
         <v>27372</v>
       </c>
       <c r="J98" s="210" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K98" s="204">
         <v>27372</v>
@@ -17398,20 +17430,28 @@
       <c r="BI98" s="111"/>
     </row>
     <row r="99" spans="1:61">
-      <c r="A99" s="216"/>
-      <c r="B99" s="217"/>
-      <c r="C99" s="190"/>
-      <c r="D99" s="191"/>
+      <c r="A99" s="216" t="s">
+        <v>188</v>
+      </c>
+      <c r="B99" s="299">
+        <v>44075</v>
+      </c>
+      <c r="C99" s="190">
+        <v>1200</v>
+      </c>
+      <c r="D99" s="191" t="s">
+        <v>183</v>
+      </c>
       <c r="F99" s="213"/>
       <c r="G99" s="207" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H99" s="207"/>
       <c r="I99" s="208">
         <v>4260</v>
       </c>
       <c r="J99" s="210" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K99" s="204">
         <v>4260</v>
@@ -17469,27 +17509,27 @@
     </row>
     <row r="100" spans="1:61">
       <c r="A100" s="216" t="s">
+        <v>111</v>
+      </c>
+      <c r="B100" s="217" t="s">
         <v>112</v>
-      </c>
-      <c r="B100" s="217" t="s">
-        <v>113</v>
       </c>
       <c r="C100" s="190">
         <v>9300</v>
       </c>
       <c r="D100" s="191" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F100" s="213"/>
       <c r="G100" s="207" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H100" s="207"/>
       <c r="I100" s="208">
         <v>13075</v>
       </c>
       <c r="J100" s="210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K100" s="204">
         <v>13075</v>
@@ -17547,27 +17587,27 @@
     </row>
     <row r="101" spans="1:61">
       <c r="A101" s="216" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B101" s="217" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C101" s="190">
         <v>6000</v>
       </c>
       <c r="D101" s="191" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F101" s="213"/>
       <c r="G101" s="207" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H101" s="207"/>
       <c r="I101" s="208">
         <v>32111</v>
       </c>
       <c r="J101" s="210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K101" s="204">
         <v>32111</v>
@@ -17625,25 +17665,25 @@
     </row>
     <row r="102" spans="1:61">
       <c r="A102" s="216" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="217"/>
       <c r="C102" s="190">
         <v>6070</v>
       </c>
       <c r="D102" s="191" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F102" s="213"/>
       <c r="G102" s="207" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H102" s="207"/>
       <c r="I102" s="208">
         <v>16821</v>
       </c>
       <c r="J102" s="210" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K102" s="204">
         <v>16821</v>
@@ -17701,27 +17741,27 @@
     </row>
     <row r="103" spans="1:61">
       <c r="A103" s="216" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B103" s="217" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="190">
         <v>2000</v>
       </c>
       <c r="D103" s="191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F103" s="213"/>
       <c r="G103" s="207" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H103" s="207"/>
       <c r="I103" s="208">
         <v>19616</v>
       </c>
       <c r="J103" s="210" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K103" s="204">
         <v>19616</v>
@@ -17779,25 +17819,25 @@
     </row>
     <row r="104" spans="1:61">
       <c r="A104" s="216" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="217"/>
       <c r="C104" s="190">
         <v>460</v>
       </c>
       <c r="D104" s="191" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F104" s="213"/>
       <c r="G104" s="207" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H104" s="207"/>
       <c r="I104" s="208">
         <v>13000</v>
       </c>
       <c r="J104" s="210" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K104" s="204">
         <v>13000</v>
@@ -17855,27 +17895,27 @@
     </row>
     <row r="105" spans="1:61">
       <c r="A105" s="216" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="217" t="s">
         <v>128</v>
-      </c>
-      <c r="B105" s="217" t="s">
-        <v>129</v>
       </c>
       <c r="C105" s="190">
         <v>5440</v>
       </c>
       <c r="D105" s="191" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F105" s="213"/>
       <c r="G105" s="207" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H105" s="207"/>
       <c r="I105" s="208">
         <v>3500</v>
       </c>
       <c r="J105" s="210" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K105" s="204">
         <v>3500</v>
@@ -17933,27 +17973,27 @@
     </row>
     <row r="106" spans="1:61">
       <c r="A106" s="216" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="217" t="s">
         <v>122</v>
-      </c>
-      <c r="B106" s="217" t="s">
-        <v>123</v>
       </c>
       <c r="C106" s="190">
         <v>2500</v>
       </c>
       <c r="D106" s="191" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F106" s="213"/>
       <c r="G106" s="207" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H106" s="207"/>
       <c r="I106" s="208">
         <v>14560</v>
       </c>
       <c r="J106" s="210" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K106" s="204">
         <v>14560</v>
@@ -18011,27 +18051,27 @@
     </row>
     <row r="107" spans="1:61">
       <c r="A107" s="216" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107" s="217" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="190">
         <v>1915</v>
       </c>
       <c r="D107" s="191" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F107" s="213"/>
       <c r="G107" s="207" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H107" s="207"/>
       <c r="I107" s="208">
         <v>29000</v>
       </c>
       <c r="J107" s="210" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K107" s="204">
         <v>29000</v>
@@ -18089,27 +18129,27 @@
     </row>
     <row r="108" spans="1:61">
       <c r="A108" s="216" t="s">
+        <v>118</v>
+      </c>
+      <c r="B108" s="217" t="s">
         <v>119</v>
-      </c>
-      <c r="B108" s="217" t="s">
-        <v>120</v>
       </c>
       <c r="C108" s="190">
         <v>2000</v>
       </c>
       <c r="D108" s="191" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F108" s="213"/>
       <c r="G108" s="207" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H108" s="207"/>
       <c r="I108" s="208">
         <v>27000</v>
       </c>
       <c r="J108" s="210" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K108" s="204">
         <v>27000</v>
@@ -18167,7 +18207,7 @@
     </row>
     <row r="109" spans="1:61">
       <c r="A109" s="216" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109" s="217">
         <v>1763999686</v>
@@ -18176,18 +18216,18 @@
         <v>20340</v>
       </c>
       <c r="D109" s="191" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F109" s="213"/>
       <c r="G109" s="207" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H109" s="207"/>
       <c r="I109" s="208">
         <v>8000</v>
       </c>
       <c r="J109" s="210" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K109" s="204">
         <v>8000</v>
@@ -18245,7 +18285,7 @@
     </row>
     <row r="110" spans="1:61">
       <c r="A110" s="216" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B110" s="217">
         <v>1758900692</v>
@@ -18254,20 +18294,20 @@
         <v>9000</v>
       </c>
       <c r="D110" s="191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F110" s="213"/>
       <c r="G110" s="207" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H110" s="207" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I110" s="208">
         <v>1210</v>
       </c>
       <c r="J110" s="210" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K110" s="204">
         <v>1210</v>
@@ -18325,27 +18365,27 @@
     </row>
     <row r="111" spans="1:61">
       <c r="A111" s="216" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B111" s="217" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="190">
         <v>6300</v>
       </c>
       <c r="D111" s="191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F111" s="213"/>
       <c r="G111" s="207" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H111" s="207"/>
       <c r="I111" s="208">
         <v>9000</v>
       </c>
       <c r="J111" s="210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K111" s="204">
         <v>9000</v>
@@ -18408,14 +18448,14 @@
       <c r="D112" s="191"/>
       <c r="F112" s="213"/>
       <c r="G112" s="207" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H112" s="207"/>
       <c r="I112" s="208">
         <v>13000</v>
       </c>
       <c r="J112" s="210" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K112" s="204">
         <v>13000</v>
@@ -18472,25 +18512,25 @@
       <c r="BI112" s="111"/>
     </row>
     <row r="113" spans="1:61">
-      <c r="A113" s="310" t="s">
-        <v>160</v>
-      </c>
-      <c r="B113" s="311"/>
+      <c r="A113" s="312" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="313"/>
       <c r="C113" s="218">
         <f>SUM(C37:C112)</f>
-        <v>2111068</v>
+        <v>2172473</v>
       </c>
       <c r="D113" s="219"/>
       <c r="F113" s="209"/>
       <c r="G113" s="203" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H113" s="203"/>
       <c r="I113" s="119">
         <v>5000</v>
       </c>
       <c r="J113" s="192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K113" s="204">
         <v>5000</v>
@@ -18556,14 +18596,14 @@
       <c r="D114" s="221"/>
       <c r="F114" s="209"/>
       <c r="G114" s="203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H114" s="203"/>
       <c r="I114" s="119">
         <v>129725</v>
       </c>
       <c r="J114" s="192" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K114" s="204">
         <v>129725</v>
@@ -18623,25 +18663,25 @@
       <c r="BI114" s="111"/>
     </row>
     <row r="115" spans="1:61">
-      <c r="A115" s="312" t="s">
-        <v>161</v>
-      </c>
-      <c r="B115" s="313"/>
+      <c r="A115" s="314" t="s">
+        <v>160</v>
+      </c>
+      <c r="B115" s="315"/>
       <c r="C115" s="223">
         <f>C113+L136</f>
-        <v>2111068</v>
+        <v>2172473</v>
       </c>
       <c r="D115" s="224"/>
       <c r="F115" s="202"/>
       <c r="G115" s="225" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H115" s="225"/>
       <c r="I115" s="119">
         <v>36000</v>
       </c>
       <c r="J115" s="192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K115" s="204">
         <v>36000</v>
@@ -18707,14 +18747,14 @@
       <c r="D116" s="111"/>
       <c r="F116" s="209"/>
       <c r="G116" s="203" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H116" s="203"/>
       <c r="I116" s="119">
         <v>3000</v>
       </c>
       <c r="J116" s="192" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K116" s="204">
         <v>3000</v>
@@ -18778,18 +18818,18 @@
       <c r="B117" s="111"/>
       <c r="D117" s="227"/>
       <c r="E117" s="108" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F117" s="209"/>
       <c r="G117" s="203" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H117" s="203"/>
       <c r="I117" s="119">
         <v>10000</v>
       </c>
       <c r="J117" s="192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K117" s="204">
         <v>10000</v>
@@ -18855,14 +18895,14 @@
       <c r="D118" s="111"/>
       <c r="F118" s="209"/>
       <c r="G118" s="203" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H118" s="203"/>
       <c r="I118" s="119">
         <v>8000</v>
       </c>
       <c r="J118" s="192" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K118" s="204">
         <v>8000</v>
@@ -18925,16 +18965,16 @@
       <c r="C119" s="230"/>
       <c r="F119" s="202"/>
       <c r="G119" s="203" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H119" s="203" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I119" s="119">
         <v>4000</v>
       </c>
       <c r="J119" s="192" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K119" s="204">
         <v>4000</v>
@@ -19000,14 +19040,14 @@
       <c r="D120" s="173"/>
       <c r="F120" s="209"/>
       <c r="G120" s="203" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H120" s="203"/>
       <c r="I120" s="119">
         <v>5190</v>
       </c>
       <c r="J120" s="192" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K120" s="204">
         <v>5190</v>
@@ -19138,16 +19178,16 @@
       <c r="D122" s="173"/>
       <c r="F122" s="203"/>
       <c r="G122" s="203" t="s">
+        <v>154</v>
+      </c>
+      <c r="H122" s="203" t="s">
         <v>155</v>
-      </c>
-      <c r="H122" s="203" t="s">
-        <v>156</v>
       </c>
       <c r="I122" s="119">
         <v>2000</v>
       </c>
       <c r="J122" s="192" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K122" s="204">
         <v>2000</v>
@@ -19213,16 +19253,16 @@
       <c r="D123" s="173"/>
       <c r="F123" s="202"/>
       <c r="G123" s="203" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H123" s="203" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I123" s="119">
         <v>5000</v>
       </c>
       <c r="J123" s="192" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K123" s="204">
         <v>5000</v>
@@ -19288,16 +19328,16 @@
       <c r="D124" s="237"/>
       <c r="F124" s="209"/>
       <c r="G124" s="225" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H124" s="225" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I124" s="119">
         <v>5500</v>
       </c>
       <c r="J124" s="192" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K124" s="204">
         <v>5500</v>
@@ -20609,8 +20649,8 @@
       <c r="J169" s="110"/>
     </row>
     <row r="170" spans="5:13">
-      <c r="F170" s="314"/>
-      <c r="G170" s="314"/>
+      <c r="F170" s="316"/>
+      <c r="G170" s="316"/>
       <c r="H170" s="111"/>
       <c r="I170" s="133"/>
       <c r="J170" s="110"/>
@@ -21248,8 +21288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z321"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -21260,94 +21300,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="326"/>
-      <c r="C1" s="326"/>
-      <c r="D1" s="326"/>
-      <c r="E1" s="326"/>
-      <c r="F1" s="326"/>
-      <c r="G1" s="326"/>
-      <c r="H1" s="326"/>
-      <c r="I1" s="326"/>
-      <c r="J1" s="326"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
+      <c r="B1" s="336"/>
+      <c r="C1" s="336"/>
+      <c r="D1" s="336"/>
+      <c r="E1" s="336"/>
+      <c r="F1" s="336"/>
+      <c r="G1" s="336"/>
+      <c r="H1" s="336"/>
+      <c r="I1" s="336"/>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+      <c r="P1" s="336"/>
+      <c r="Q1" s="336"/>
+      <c r="R1" s="336"/>
+      <c r="S1" s="336"/>
     </row>
     <row r="2" spans="1:26" s="245" customFormat="1" ht="18">
-      <c r="A2" s="327" t="s">
+      <c r="A2" s="337" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="337"/>
+      <c r="E2" s="337"/>
+      <c r="F2" s="337"/>
+      <c r="G2" s="337"/>
+      <c r="H2" s="337"/>
+      <c r="I2" s="337"/>
+      <c r="J2" s="337"/>
+      <c r="K2" s="337"/>
+      <c r="L2" s="337"/>
+      <c r="M2" s="337"/>
+      <c r="N2" s="337"/>
+      <c r="O2" s="337"/>
+      <c r="P2" s="337"/>
+      <c r="Q2" s="337"/>
+      <c r="R2" s="337"/>
+      <c r="S2" s="337"/>
+    </row>
+    <row r="3" spans="1:26" s="245" customFormat="1">
+      <c r="A3" s="338"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
+      <c r="Q3" s="338"/>
+      <c r="R3" s="338"/>
+      <c r="S3" s="338"/>
+    </row>
+    <row r="4" spans="1:26" s="246" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A4" s="339" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
-      <c r="M2" s="327"/>
-      <c r="N2" s="327"/>
-      <c r="O2" s="327"/>
-      <c r="P2" s="327"/>
-      <c r="Q2" s="327"/>
-      <c r="R2" s="327"/>
-      <c r="S2" s="327"/>
-    </row>
-    <row r="3" spans="1:26" s="245" customFormat="1">
-      <c r="A3" s="328"/>
-      <c r="B3" s="328"/>
-      <c r="C3" s="328"/>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
-      <c r="H3" s="328"/>
-      <c r="I3" s="328"/>
-      <c r="J3" s="328"/>
-      <c r="K3" s="328"/>
-      <c r="L3" s="328"/>
-      <c r="M3" s="328"/>
-      <c r="N3" s="328"/>
-      <c r="O3" s="328"/>
-      <c r="P3" s="328"/>
-      <c r="Q3" s="328"/>
-      <c r="R3" s="328"/>
-      <c r="S3" s="328"/>
-    </row>
-    <row r="4" spans="1:26" s="246" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A4" s="329" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="330"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
-      <c r="J4" s="330"/>
-      <c r="K4" s="330"/>
-      <c r="L4" s="330"/>
-      <c r="M4" s="330"/>
-      <c r="N4" s="330"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="330"/>
-      <c r="Q4" s="330"/>
-      <c r="R4" s="330"/>
-      <c r="S4" s="331"/>
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="340"/>
+      <c r="G4" s="340"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
+      <c r="M4" s="340"/>
+      <c r="N4" s="340"/>
+      <c r="O4" s="340"/>
+      <c r="P4" s="340"/>
+      <c r="Q4" s="340"/>
+      <c r="R4" s="340"/>
+      <c r="S4" s="341"/>
       <c r="U4" s="127"/>
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
@@ -21356,59 +21396,59 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" s="248" customFormat="1">
-      <c r="A5" s="332" t="s">
+      <c r="A5" s="342" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="344" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="334" t="s">
+      <c r="C5" s="330" t="s">
         <v>165</v>
       </c>
-      <c r="C5" s="336" t="s">
+      <c r="D5" s="330" t="s">
         <v>166</v>
       </c>
-      <c r="D5" s="336" t="s">
+      <c r="E5" s="330" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="336" t="s">
+      <c r="F5" s="330" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="336" t="s">
+      <c r="G5" s="330" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="336" t="s">
+      <c r="H5" s="330" t="s">
         <v>170</v>
       </c>
-      <c r="H5" s="336" t="s">
+      <c r="I5" s="330" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="336" t="s">
+      <c r="J5" s="330" t="s">
         <v>172</v>
       </c>
-      <c r="J5" s="336" t="s">
+      <c r="K5" s="330" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="336" t="s">
+      <c r="L5" s="330" t="s">
         <v>174</v>
       </c>
-      <c r="L5" s="336" t="s">
+      <c r="M5" s="330" t="s">
         <v>175</v>
       </c>
-      <c r="M5" s="336" t="s">
+      <c r="N5" s="330" t="s">
         <v>176</v>
       </c>
-      <c r="N5" s="336" t="s">
+      <c r="O5" s="332" t="s">
         <v>177</v>
       </c>
-      <c r="O5" s="340" t="s">
+      <c r="P5" s="334" t="s">
         <v>178</v>
       </c>
-      <c r="P5" s="342" t="s">
+      <c r="Q5" s="328" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="346" t="s">
         <v>179</v>
-      </c>
-      <c r="Q5" s="344" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="338" t="s">
-        <v>180</v>
       </c>
       <c r="S5" s="247" t="s">
         <v>4</v>
@@ -21420,26 +21460,26 @@
       <c r="Y5" s="250"/>
     </row>
     <row r="6" spans="1:26" s="248" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A6" s="333"/>
-      <c r="B6" s="335"/>
-      <c r="C6" s="337"/>
-      <c r="D6" s="337"/>
-      <c r="E6" s="337"/>
-      <c r="F6" s="337"/>
-      <c r="G6" s="337"/>
-      <c r="H6" s="337"/>
-      <c r="I6" s="337"/>
-      <c r="J6" s="337"/>
-      <c r="K6" s="337"/>
-      <c r="L6" s="337"/>
-      <c r="M6" s="337"/>
-      <c r="N6" s="337"/>
-      <c r="O6" s="341"/>
-      <c r="P6" s="343"/>
-      <c r="Q6" s="345"/>
-      <c r="R6" s="339"/>
+      <c r="A6" s="343"/>
+      <c r="B6" s="345"/>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="331"/>
+      <c r="K6" s="331"/>
+      <c r="L6" s="331"/>
+      <c r="M6" s="331"/>
+      <c r="N6" s="331"/>
+      <c r="O6" s="333"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="329"/>
+      <c r="R6" s="347"/>
       <c r="S6" s="252" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="U6" s="253"/>
       <c r="V6" s="254"/>
@@ -21535,33 +21575,49 @@
       <c r="Y8" s="48"/>
     </row>
     <row r="9" spans="1:26" s="22" customFormat="1">
-      <c r="A9" s="256"/>
-      <c r="B9" s="264"/>
+      <c r="A9" s="256" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="264">
+        <v>1400</v>
+      </c>
       <c r="C9" s="257"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="265"/>
+      <c r="D9" s="265">
+        <v>50</v>
+      </c>
+      <c r="E9" s="265">
+        <v>1420</v>
+      </c>
       <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
+      <c r="G9" s="265">
+        <v>370</v>
+      </c>
       <c r="H9" s="265"/>
       <c r="I9" s="265"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="265"/>
+      <c r="J9" s="266">
+        <v>20</v>
+      </c>
+      <c r="K9" s="265">
+        <v>480</v>
+      </c>
       <c r="L9" s="265"/>
       <c r="M9" s="265"/>
-      <c r="N9" s="265"/>
+      <c r="N9" s="265">
+        <v>100</v>
+      </c>
       <c r="O9" s="35"/>
       <c r="P9" s="265"/>
       <c r="Q9" s="265"/>
       <c r="R9" s="267"/>
       <c r="S9" s="261">
         <f>SUM(B9:R9)</f>
-        <v>0</v>
+        <v>3840</v>
       </c>
       <c r="T9" s="262"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="X9" s="48"/>
       <c r="Y9" s="5"/>
@@ -22347,11 +22403,11 @@
     </row>
     <row r="38" spans="1:20" s="245" customFormat="1" ht="13.5" thickBot="1">
       <c r="A38" s="281" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B38" s="282">
         <f>SUM(B7:B37)</f>
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="C38" s="283">
         <f t="shared" ref="C38:R38" si="1">SUM(C7:C37)</f>
@@ -22359,11 +22415,11 @@
       </c>
       <c r="D38" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E38" s="283">
         <f t="shared" si="1"/>
-        <v>840</v>
+        <v>2260</v>
       </c>
       <c r="F38" s="283">
         <f t="shared" si="1"/>
@@ -22380,11 +22436,11 @@
       </c>
       <c r="J38" s="283">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K38" s="283">
         <f t="shared" si="1"/>
-        <v>720</v>
+        <v>1200</v>
       </c>
       <c r="L38" s="283">
         <f t="shared" si="1"/>
@@ -22396,7 +22452,7 @@
       </c>
       <c r="N38" s="283">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="O38" s="283">
         <f t="shared" si="1"/>
@@ -22416,7 +22472,7 @@
       </c>
       <c r="S38" s="285">
         <f>SUM(S7:S37)</f>
-        <v>4010</v>
+        <v>7850</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -24421,12 +24477,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -24443,6 +24493,12 @@
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
